--- a/scf_api_uat/files/订单贷导入模板_new.xlsx
+++ b/scf_api_uat/files/订单贷导入模板_new.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -580,12 +580,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>6341708952</t>
+          <t>6847120359</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>订单名称953814</t>
+          <t>订单名称630147</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -615,7 +615,7 @@
         <v>10000</v>
       </c>
       <c r="P3" s="6" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>928495058</v>
@@ -632,12 +632,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7396285410</t>
+          <t>3281950746</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>订单名称025168</t>
+          <t>订单名称139847</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -667,7 +667,7 @@
         <v>10001</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="5">
@@ -676,12 +676,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9170538264</t>
+          <t>6701532948</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>订单名称306185</t>
+          <t>订单名称921865</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -711,7 +711,7 @@
         <v>10002</v>
       </c>
       <c r="P5" s="10" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
     </row>
   </sheetData>
